--- a/Output_testing/R1_201907/Country/HKD/MN/NEPAL_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NEPAL_201907_HKD_MN.xlsx
@@ -661,8 +661,10 @@
       <c r="H10" s="9" t="n">
         <v>-55.39677801593326</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>1494.601612720267</v>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="J10" s="9" t="n">
         <v>-95.99813402891181</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/NEPAL_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NEPAL_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>818.507472</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>66.51930809072681</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1238.921856</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>64.86564117909343</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>900.532349</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>51.96338570363943</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>417.765054</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>49.38316677790294</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-20.14529946667183</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>160.866829</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>13.07349111142783</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>358.576481</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>18.77381792819709</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>541.317716</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>31.23563667197163</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>247.410799</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>29.24593292973525</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-21.89100116836996</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>21.996903</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.787666964265456</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>37.444591</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.960468605942417</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>27.906205</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.610270742133919</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>76.76003</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.073648758009409</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>548.0368526493435</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>78.229626</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.357645802549658</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>87.425321</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.577285867134676</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>79.280304</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.574708526604844</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>47.216458</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.58136253319994</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-11.42474622561761</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.252055</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.2642913545363316</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.098504</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.0575138504117235</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.993036</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.05730112054597528</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>8.277557</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.9784733642287802</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>805.3585041863314</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>19.073153</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.55005663854046</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>75.878258</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.97272179265088</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>63.495082</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.66385443000917</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>7.493353</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.88577418666689</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-72.67831491081182</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.249967</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.426659724297726</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>6.003159</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.3143045348253549</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>6.850569</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3952981362987056</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>4.291379</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.5072752802923299</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-20.23945380281649</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3.530578</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.2869266485087653</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>5.030966</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2634038892443423</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>7.068384</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4078667073995736</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>3.845114</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.4545231922200211</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>61.04548719527389</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.706844</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1387135558107752</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.361603</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.07128879936910013</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4.47155</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.2580216886168838</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>3.155705</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.3730295409459074</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>58.89425243486917</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.69417</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.218952581875506</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>5.524032</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.2892191108248798</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.513169</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.2604232282750663</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2.61551</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.3091741764960382</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>102.6897065330854</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>115.37344</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>9.376287527460693</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>92.716898</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>4.854334442306106</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>96.58486600000001</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>5.573233044504802</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>27.135554</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.207639260302494</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-57.09142505568315</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,597 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>160.717069</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>99.77399338096245</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>202.520241</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.68340171891053</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>224.279243</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>99.83500727057972</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>136.042479</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>99.93912155230454</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>23.96211887274928</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>37.60592164290699</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.07482875569473153</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.2303386721823437</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.1339208258446624</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-89.35657661817902</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1207286095217998</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1892,437 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>818.507472</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>76.53895061001474</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1238.921856</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>72.58663192050207</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>900.532349</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>59.70261478068244</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>417.765054</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>58.85331476613733</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-20.14529946667183</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>156.05624</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.143108418758521</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>317.038473</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>21.01870726264692</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>111.36832</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>15.68918876574082</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-46.20030738797538</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>21.996903</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.056938916118147</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>37.444591</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.193824195745518</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>27.906205</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.850098343447465</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>76.76003</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.81369100596946</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>548.0368526493435</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>78.229626</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.315282615592205</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>87.425321</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.122122565863218</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>79.280304</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.256048219326541</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>47.216458</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.651693429618705</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-11.42474622561761</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.252055</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.3041009221551144</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.098504</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.06435975370443316</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>0.993036</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.0658353315538138</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>8.277557</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.166113974711833</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>805.3585041863314</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>19.073153</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.783537921623584</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>75.878258</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.445596917627459</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>63.495082</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.209534977087029</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>7.493353</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.055637992072883</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-72.67831491081182</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.249967</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.4909264468109916</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>6.003159</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.3517163657925245</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>6.850569</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.4541723376063694</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>4.291379</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.6045548248939742</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-20.23945380281649</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3.530578</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3301457157214621</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>5.030966</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.2947569901023367</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>7.068384</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4686128238952794</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>3.845114</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.5416865350199479</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>61.04548719527389</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.706844</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1596076432824549</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.361603</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.07977434194433276</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4.47155</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.2964504577975584</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>3.155705</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4445649483981813</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>58.89425243486917</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.69417</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.2519328798075815</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>5.524032</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3236450108287338</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.513169</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2992096736406276</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2.61551</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.3684641207542933</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>102.6897065330854</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>115.009386</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>10.75457221329083</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>92.073686</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>5.39446351913085</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>96.21420999999999</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.378715792315956</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>27.052683</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.811089636682566</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-57.00882037482556</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2354,477 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD EQUIPMENT OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>2.894619</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>9.400048886688003</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>2.242594</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>8.838749344757865</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2.502776</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>14.02626402212526</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>4.1997</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>37.70153245234118</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>116.877922574215</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>6.856172</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>22.26488252013182</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>5.150263</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>20.29876282402462</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>4.478312</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>25.09772607914245</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.518786</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.61163705014707</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>591.5296210677751</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FLOOR COVERINGS, ETC</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1.329214</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.316518540391709</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.797438</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.084253299858507</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.476785</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.276320499283296</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.941502</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.45204852892924</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-10.98448211798809</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>5.16392</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>16.76942645886934</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>6.500891</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>25.62200115874398</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2.834412</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>15.88484589091477</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.709902</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.372929802362528</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-67.77002234617595</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.03655</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.366115082329125</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.741614</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.922927759801043</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.7167289999999999</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.016751873245474</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.5027700000000001</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.51346512157144</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>18.11983723487234</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.99199</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.221409966253117</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.522838</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.060664583029524</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.482484235012901</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.422418393916693</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>99.05126713214378</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.12652415965585</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>9.865455000000001</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>32.03729378181397</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>5.989048</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>23.60467123595417</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>3.541809</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>19.84929859881166</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.616224397596445</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-91.32986583500654</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.9653415984115432</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.542343421763104</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>0.558901</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.132239156932074</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.522242126661959</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-20.40336448704038</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.346723121263522</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>2.358475</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>7.658963165111363</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>2.036286</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>8.025626372067176</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.290811</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.234069644532124</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>0.703366</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.314254845554065</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-6.688405931688468</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
